--- a/results/consolidated/NF_vs_Standard_GARCH_Comparison.xlsx
+++ b/results/consolidated/NF_vs_Standard_GARCH_Comparison.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t xml:space="preserve">Question</t>
   </si>
@@ -36,37 +36,37 @@
     <t xml:space="preserve">Overall mean MSE - Standard</t>
   </si>
   <si>
-    <t xml:space="preserve">0.000562899234267776</t>
+    <t xml:space="preserve">3.50174528626368</t>
   </si>
   <si>
     <t xml:space="preserve">Overall mean MSE - NF-GARCH</t>
   </si>
   <si>
-    <t xml:space="preserve">0.000316856128827111</t>
+    <t xml:space="preserve">0.0291487681832248</t>
   </si>
   <si>
     <t xml:space="preserve">Overall mean AIC - Standard</t>
   </si>
   <si>
-    <t xml:space="preserve">-19003.4468911141</t>
+    <t xml:space="preserve">-23419.1714337619</t>
   </si>
   <si>
     <t xml:space="preserve">Overall mean AIC - NF-GARCH</t>
   </si>
   <si>
-    <t xml:space="preserve">-14827.0226667233</t>
+    <t xml:space="preserve">-23528.7963263558</t>
   </si>
   <si>
     <t xml:space="preserve">NF-GARCH wins (lower MSE)</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
+    <t xml:space="preserve">7</t>
   </si>
   <si>
     <t xml:space="preserve">Standard GARCH wins (lower MSE)</t>
   </si>
   <si>
-    <t xml:space="preserve">5</t>
+    <t xml:space="preserve">12</t>
   </si>
   <si>
     <t xml:space="preserve">Overall winner</t>
@@ -126,6 +126,9 @@
     <t xml:space="preserve">eGARCH</t>
   </si>
   <si>
+    <t xml:space="preserve">gjrGARCH</t>
+  </si>
+  <si>
     <t xml:space="preserve">sGARCH</t>
   </si>
   <si>
@@ -183,34 +186,34 @@
     <t xml:space="preserve">Asset_Class</t>
   </si>
   <si>
+    <t xml:space="preserve">sstd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NVDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EURUSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBPUSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USDZAR</t>
+  </si>
+  <si>
     <t xml:space="preserve">norm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NVDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sstd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSFT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EURUSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GBPUSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USDZAR</t>
   </si>
   <si>
     <t xml:space="preserve">Test_Type</t>
@@ -731,13 +734,13 @@
         <v>-25451.6514751415</v>
       </c>
       <c r="G2" t="n">
-        <v>0.000351670448902567</v>
+        <v>0.000352619357668561</v>
       </c>
       <c r="H2" t="n">
         <v>0.000559673107021087</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0112453482741889</v>
+        <v>0.0112793660229891</v>
       </c>
       <c r="J2" t="n">
         <v>0.0137454998374633</v>
@@ -752,10 +755,10 @@
         <v>-0.00000000000363797880709171</v>
       </c>
       <c r="N2" t="n">
-        <v>37.1650264250919</v>
+        <v>36.9954794602493</v>
       </c>
       <c r="O2" t="n">
-        <v>18.1888733973884</v>
+        <v>17.9413905906338</v>
       </c>
     </row>
     <row r="3">
@@ -766,43 +769,43 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>49151.6959605564</v>
+        <v>31837.7685390903</v>
       </c>
       <c r="D3" t="n">
-        <v>49151.6959605564</v>
+        <v>31837.7685390903</v>
       </c>
       <c r="E3" t="n">
-        <v>49190.1869233515</v>
+        <v>31876.2595018854</v>
       </c>
       <c r="F3" t="n">
-        <v>49190.1869233515</v>
+        <v>31876.2595018854</v>
       </c>
       <c r="G3" t="n">
-        <v>0.000107970208374375</v>
+        <v>0.718525068301419</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0000523280115931615</v>
+        <v>66.5223139166787</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00909816454881126</v>
+        <v>0.0920867446967219</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00616455660306132</v>
+        <v>1.54717433862132</v>
       </c>
       <c r="K3" t="n">
-        <v>-24569.8479802782</v>
+        <v>-15912.8842695452</v>
       </c>
       <c r="L3" t="n">
-        <v>-24569.8479802782</v>
+        <v>-15912.8842695452</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.0000000000363797880709171</v>
+        <v>0.00000000000727595761418343</v>
       </c>
       <c r="N3" t="n">
-        <v>-106.333481986319</v>
+        <v>98.9198736093254</v>
       </c>
       <c r="O3" t="n">
-        <v>-47.5883041497763</v>
+        <v>94.048069283596</v>
       </c>
     </row>
     <row r="4">
@@ -812,29 +815,107 @@
       <c r="B4" t="n">
         <v>6</v>
       </c>
-      <c r="C4"/>
+      <c r="C4" t="n">
+        <v>-27474.0650181722</v>
+      </c>
       <c r="D4" t="n">
-        <v>-23875.94181957</v>
-      </c>
-      <c r="E4"/>
+        <v>-27474.0650181722</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-27435.5740553771</v>
+      </c>
       <c r="F4" t="n">
-        <v>-23850.2811777066</v>
-      </c>
-      <c r="G4"/>
+        <v>-27435.5740553771</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.000411248257046973</v>
+      </c>
       <c r="H4" t="n">
-        <v>0.000651220565293567</v>
-      </c>
-      <c r="I4"/>
+        <v>0.000597494046328344</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0128229550886813</v>
+      </c>
       <c r="J4" t="n">
-        <v>0.0153743423041119</v>
-      </c>
-      <c r="K4"/>
+        <v>0.0145061145911386</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13743.0325090861</v>
+      </c>
       <c r="L4" t="n">
-        <v>11941.970909785</v>
-      </c>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
+        <v>13743.0325090861</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.00000000000727595761418343</v>
+      </c>
+      <c r="N4" t="n">
+        <v>31.1711539932269</v>
+      </c>
+      <c r="O4" t="n">
+        <v>11.60310358699</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="n">
+        <v>12</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-25189.3693301111</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5" t="n">
+        <v>-25160.5011080147</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5" t="n">
+        <v>0.000467577549242258</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5" t="n">
+        <v>0.0135244910484579</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5" t="n">
+        <v>12599.1846650555</v>
+      </c>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6" t="n">
+        <v>-26502.7968406522</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6" t="n">
+        <v>-26470.7210383229</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6" t="n">
+        <v>0.000650586568502746</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6" t="n">
+        <v>0.0153865953175631</v>
+      </c>
+      <c r="K6"/>
+      <c r="L6" t="n">
+        <v>13256.3984203261</v>
+      </c>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -852,53 +933,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
-        <v>-14827.0226667233</v>
+        <v>-23528.7963263558</v>
       </c>
       <c r="D2" t="n">
-        <v>0.000316856128827111</v>
+        <v>0.0291487681832248</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0109386077419921</v>
+        <v>0.0159597825579296</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C3" t="n">
-        <v>-19003.4468911141</v>
+        <v>-23419.1714337619</v>
       </c>
       <c r="D3" t="n">
-        <v>0.000562899234267776</v>
+        <v>3.50174528626368</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0139141238040395</v>
+        <v>0.0952107156367529</v>
       </c>
     </row>
   </sheetData>
@@ -920,13 +1001,13 @@
         <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -951,10 +1032,38 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>33.3333333333333</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>33.3333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -976,63 +1085,63 @@
         <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D2" t="n">
-        <v>-16292.5961162957</v>
+        <v>-18896.2142759014</v>
       </c>
       <c r="E2" t="n">
-        <v>-16266.9354744323</v>
+        <v>-18864.1384735722</v>
       </c>
       <c r="F2" t="n">
-        <v>8150.29805814787</v>
+        <v>9453.10713795071</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0021585070023978</v>
+        <v>0.00215198175295782</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0379155849442875</v>
+        <v>0.0379765477640055</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -1040,10 +1149,10 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D3" t="n">
         <v>-17940.7188127727</v>
@@ -1061,10 +1170,10 @@
         <v>0.038889301382911</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -1072,159 +1181,159 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" t="n">
-        <v>-21806.61635107</v>
+        <v>-19808.0176404271</v>
       </c>
       <c r="E4" t="n">
-        <v>-21780.9557092066</v>
+        <v>-19769.526677632</v>
       </c>
       <c r="F4" t="n">
-        <v>10907.308175535</v>
+        <v>9910.00882021353</v>
       </c>
       <c r="G4" t="n">
-        <v>0.000213448124478158</v>
+        <v>0.00211018578744319</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0123350376835647</v>
+        <v>0.0373301138957993</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
         <v>58</v>
       </c>
       <c r="D5" t="n">
-        <v>-23433.1284200857</v>
+        <v>-24492.0770277156</v>
       </c>
       <c r="E5" t="n">
-        <v>-23394.6374572906</v>
+        <v>-24460.0012253864</v>
       </c>
       <c r="F5" t="n">
-        <v>11722.5642100428</v>
+        <v>12251.0385138578</v>
       </c>
       <c r="G5" t="n">
-        <v>0.000190643641792287</v>
+        <v>0.000214052529008687</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0116709555045471</v>
+        <v>0.0123577724835287</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" t="n">
-        <v>-17563.0888840556</v>
+        <v>-23433.1284200857</v>
       </c>
       <c r="E6" t="n">
-        <v>-17537.4282421922</v>
+        <v>-23394.6374572906</v>
       </c>
       <c r="F6" t="n">
-        <v>8785.54444202782</v>
+        <v>11722.5642100428</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00136097639030561</v>
+        <v>0.000190643641792287</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0241665740441161</v>
+        <v>0.0116709555045471</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-25241.6100567978</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-25203.1190940027</v>
+      </c>
+      <c r="F7" t="n">
+        <v>12626.8050283989</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.000202318443787235</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0121563983859576</v>
+      </c>
+      <c r="I7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" t="s">
         <v>57</v>
-      </c>
-      <c r="C7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-20521.2259010673</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-20482.7349382722</v>
-      </c>
-      <c r="F7" t="n">
-        <v>10266.6129505337</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.000763752779893336</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.0189807701467755</v>
-      </c>
-      <c r="I7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" t="n">
-        <v>-30865.1151412699</v>
+        <v>-21575.9136622605</v>
       </c>
       <c r="E8" t="n">
-        <v>-30839.4544994065</v>
+        <v>-21543.8378599312</v>
       </c>
       <c r="F8" t="n">
-        <v>15436.5575706349</v>
+        <v>10792.9568311302</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0000419519217454676</v>
+        <v>0.00136378671267644</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00540775850388242</v>
+        <v>0.024167600004826</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9">
@@ -1232,31 +1341,31 @@
         <v>34</v>
       </c>
       <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" t="n">
+        <v>31837.7685390903</v>
+      </c>
+      <c r="E9" t="n">
+        <v>31876.2595018854</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-15912.8842695452</v>
+      </c>
+      <c r="G9" t="n">
+        <v>66.5223139166787</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.54717433862132</v>
+      </c>
+      <c r="I9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" t="s">
         <v>57</v>
-      </c>
-      <c r="C9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" t="n">
-        <v>49151.6959605564</v>
-      </c>
-      <c r="E9" t="n">
-        <v>49190.1869233515</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-24569.8479802782</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.0000523280115931615</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.00616455660306132</v>
-      </c>
-      <c r="I9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="10">
@@ -1264,31 +1373,31 @@
         <v>33</v>
       </c>
       <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-20521.2259010673</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-20482.7349382722</v>
+      </c>
+      <c r="F10" t="n">
+        <v>10266.6129505337</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.000763752779893336</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0189807701467755</v>
+      </c>
+      <c r="I10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" t="s">
         <v>57</v>
-      </c>
-      <c r="C10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-32326.2491294199</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-32287.7581666248</v>
-      </c>
-      <c r="F10" t="n">
-        <v>16169.12456471</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.000024858777069834</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.00406191649185466</v>
-      </c>
-      <c r="I10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -1296,60 +1405,60 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D11" t="n">
-        <v>-31065.310641081</v>
+        <v>-22400.0835745185</v>
       </c>
       <c r="E11" t="n">
-        <v>-31039.6499992176</v>
+        <v>-22361.5926117234</v>
       </c>
       <c r="F11" t="n">
-        <v>15536.6553205405</v>
+        <v>11206.0417872593</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0000333452411446279</v>
+        <v>0.00113419412035401</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00452120123501883</v>
+        <v>0.0223531069541706</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D12" t="n">
-        <v>-31954.3769009613</v>
+        <v>-33362.8305909618</v>
       </c>
       <c r="E12" t="n">
-        <v>-31915.8859381662</v>
+        <v>-33330.7547886325</v>
       </c>
       <c r="F12" t="n">
-        <v>15983.1884504807</v>
+        <v>16686.4152954809</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0000184975556513942</v>
+        <v>0.0000422722623772161</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00328387418685859</v>
+        <v>0.00542817692859459</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J12" t="s">
         <v>61</v>
@@ -1357,31 +1466,31 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D13" t="n">
-        <v>-25662.9237836476</v>
+        <v>-32326.2491294199</v>
       </c>
       <c r="E13" t="n">
-        <v>-25637.2631417842</v>
+        <v>-32287.7581666248</v>
       </c>
       <c r="F13" t="n">
-        <v>12835.4618918238</v>
+        <v>16169.12456471</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0000990947116897439</v>
+        <v>0.000024858777069834</v>
       </c>
       <c r="H13" t="n">
-        <v>0.00789989741380206</v>
+        <v>0.00406191649185466</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J13" t="s">
         <v>61</v>
@@ -1389,31 +1498,31 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D14" t="n">
-        <v>-26765.1554633125</v>
+        <v>-34582.5142602016</v>
       </c>
       <c r="E14" t="n">
-        <v>-26726.6645005174</v>
+        <v>-34544.0232974065</v>
       </c>
       <c r="F14" t="n">
-        <v>13388.5777316562</v>
+        <v>17297.2571301008</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0000535343354542533</v>
+        <v>0.0000267578797105093</v>
       </c>
       <c r="H14" t="n">
-        <v>0.00558618131183317</v>
+        <v>0.0042450695744421</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J14" t="s">
         <v>61</v>
@@ -1421,31 +1530,31 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D15" t="n">
-        <v>49151.6959605564</v>
+        <v>-33107.3400236491</v>
       </c>
       <c r="E15" t="n">
-        <v>49190.1869233515</v>
+        <v>-33075.2642213199</v>
       </c>
       <c r="F15" t="n">
-        <v>-24569.8479802782</v>
+        <v>16558.6700118246</v>
       </c>
       <c r="G15" t="n">
-        <v>0.000107970208374375</v>
+        <v>0.000033297307957778</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00909816454881126</v>
+        <v>0.00451548259175802</v>
       </c>
       <c r="I15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J15" t="s">
         <v>61</v>
@@ -1456,28 +1565,28 @@
         <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D16" t="n">
-        <v>-32326.2491294199</v>
+        <v>-31954.3769009613</v>
       </c>
       <c r="E16" t="n">
-        <v>-32287.7581666248</v>
+        <v>-31915.8859381662</v>
       </c>
       <c r="F16" t="n">
-        <v>16169.12456471</v>
+        <v>15983.1884504807</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0000344071775415811</v>
+        <v>0.0000184975556513942</v>
       </c>
       <c r="H16" t="n">
-        <v>0.00423365430412743</v>
+        <v>0.00328387418685859</v>
       </c>
       <c r="I16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J16" t="s">
         <v>61</v>
@@ -1485,31 +1594,31 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
         <v>62</v>
       </c>
       <c r="D17" t="n">
-        <v>-31954.3769009613</v>
+        <v>-34124.7483549712</v>
       </c>
       <c r="E17" t="n">
-        <v>-31915.8859381662</v>
+        <v>-34086.2573921761</v>
       </c>
       <c r="F17" t="n">
-        <v>15983.1884504807</v>
+        <v>17068.3741774856</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0000409184967887153</v>
+        <v>0.0000229257923821103</v>
       </c>
       <c r="H17" t="n">
-        <v>0.00452602623137869</v>
+        <v>0.00367871535712302</v>
       </c>
       <c r="I17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J17" t="s">
         <v>61</v>
@@ -1517,31 +1626,31 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
         <v>63</v>
       </c>
       <c r="D18" t="n">
-        <v>-26765.1554633125</v>
+        <v>-27582.4054634246</v>
       </c>
       <c r="E18" t="n">
-        <v>-26726.6645005174</v>
+        <v>-27550.3296610953</v>
       </c>
       <c r="F18" t="n">
-        <v>13388.5777316562</v>
+        <v>13796.2027317123</v>
       </c>
       <c r="G18" t="n">
-        <v>0.000117643090661667</v>
+        <v>0.0000981288460385293</v>
       </c>
       <c r="H18" t="n">
-        <v>0.00815540288852893</v>
+        <v>0.00787399213266571</v>
       </c>
       <c r="I18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J18" t="s">
         <v>61</v>
@@ -1552,95 +1661,863 @@
         <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D19" t="n">
-        <v>-17940.7188127727</v>
+        <v>-26765.1554633125</v>
       </c>
       <c r="E19" t="n">
-        <v>-17902.2278499776</v>
+        <v>-26726.6645005174</v>
       </c>
       <c r="F19" t="n">
-        <v>8976.35940638635</v>
+        <v>13388.5777316562</v>
       </c>
       <c r="G19" t="n">
-        <v>0.00100157037362807</v>
+        <v>0.0000535343354542533</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0220548986630599</v>
+        <v>0.00558618131183317</v>
       </c>
       <c r="I19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J19" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D20" t="n">
-        <v>-23433.1284200857</v>
+        <v>-28687.4162221169</v>
       </c>
       <c r="E20" t="n">
-        <v>-23394.6374572906</v>
+        <v>-28648.9252593218</v>
       </c>
       <c r="F20" t="n">
-        <v>11722.5642100428</v>
+        <v>14349.7081110585</v>
       </c>
       <c r="G20" t="n">
-        <v>0.000316598300654262</v>
+        <v>0.0000885822542930029</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0121024524141415</v>
+        <v>0.00727328337933892</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J20" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-30865.1151412699</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-30839.4544994065</v>
+      </c>
+      <c r="F21" t="n">
+        <v>15436.5575706349</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0000471221203664775</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.00506340397644398</v>
+      </c>
+      <c r="I21" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-31065.310641081</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-31039.6499992176</v>
+      </c>
+      <c r="F22" t="n">
+        <v>15536.6553205405</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0000541902060297839</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.00534488120657274</v>
+      </c>
+      <c r="I22" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-25662.9237836476</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-25637.2631417842</v>
+      </c>
+      <c r="F23" t="n">
+        <v>12835.4618918238</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.000151102849544144</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0093812057061357</v>
+      </c>
+      <c r="I23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-16292.5961162957</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-16266.9354744323</v>
+      </c>
+      <c r="F24" t="n">
+        <v>8150.29805814787</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.00134506210144947</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.0267916397053963</v>
+      </c>
+      <c r="I24" t="s">
+        <v>42</v>
+      </c>
+      <c r="J24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-21806.61635107</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-21780.9557092066</v>
+      </c>
+      <c r="F25" t="n">
+        <v>10907.308175535</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.000413129750487411</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.014402843653106</v>
+      </c>
+      <c r="I25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-17563.0888840556</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-17537.4282421922</v>
+      </c>
+      <c r="F26" t="n">
+        <v>8785.54444202782</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.000852662289321726</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.0211827623315875</v>
+      </c>
+      <c r="I26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-33362.8305909618</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-33330.7547886325</v>
+      </c>
+      <c r="F27" t="n">
+        <v>16686.4152954809</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0000468960991281148</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.00503851779434072</v>
+      </c>
+      <c r="I27" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-33107.3400236491</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-33075.2642213199</v>
+      </c>
+      <c r="F28" t="n">
+        <v>16558.6700118246</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0000541989383920334</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.0053442522767311</v>
+      </c>
+      <c r="I28" t="s">
+        <v>42</v>
+      </c>
+      <c r="J28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-27582.4054634246</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-27550.3296610953</v>
+      </c>
+      <c r="F29" t="n">
+        <v>13796.2027317123</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.00015096287634305</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.00934033768264938</v>
+      </c>
+      <c r="I29" t="s">
+        <v>42</v>
+      </c>
+      <c r="J29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-18896.2142759014</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-18864.1384735722</v>
+      </c>
+      <c r="F30" t="n">
+        <v>9453.10713795071</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.00130997725605224</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.0263696420670088</v>
+      </c>
+      <c r="I30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-24492.0770277156</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-24460.0012253864</v>
+      </c>
+      <c r="F31" t="n">
+        <v>12251.0385138578</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.000412427477910599</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0143943179341497</v>
+      </c>
+      <c r="I31" t="s">
+        <v>42</v>
+      </c>
+      <c r="J31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-21575.9136622605</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-21543.8378599312</v>
+      </c>
+      <c r="F32" t="n">
+        <v>10792.9568311302</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.000773198625882046</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.0196400882473723</v>
+      </c>
+      <c r="I32" t="s">
+        <v>42</v>
+      </c>
+      <c r="J32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-34582.5142602016</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-34544.0232974065</v>
+      </c>
+      <c r="F33" t="n">
+        <v>17297.2571301008</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0000400626614373225</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.00470925312283025</v>
+      </c>
+      <c r="I33" t="s">
+        <v>42</v>
+      </c>
+      <c r="J33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-34124.7483549712</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-34086.2573921761</v>
+      </c>
+      <c r="F34" t="n">
+        <v>17068.3741774856</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0000515527973425671</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.00525776264751765</v>
+      </c>
+      <c r="I34" t="s">
+        <v>42</v>
+      </c>
+      <c r="J34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-28687.4162221169</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-28648.9252593218</v>
+      </c>
+      <c r="F35" t="n">
+        <v>14349.7081110585</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.000188423406765555</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.0105524299703285</v>
+      </c>
+      <c r="I35" t="s">
+        <v>42</v>
+      </c>
+      <c r="J35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-19808.0176404271</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-19769.526677632</v>
+      </c>
+      <c r="F36" t="n">
+        <v>9910.00882021353</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.00111959510690415</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.0241058175385153</v>
+      </c>
+      <c r="I36" t="s">
+        <v>42</v>
+      </c>
+      <c r="J36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-25241.6100567978</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-25203.1190940027</v>
+      </c>
+      <c r="F37" t="n">
+        <v>12626.8050283989</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.000372757634185981</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.0138921120121489</v>
+      </c>
+      <c r="I37" t="s">
+        <v>42</v>
+      </c>
+      <c r="J37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-22400.0835745185</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-22361.5926117234</v>
+      </c>
+      <c r="F38" t="n">
+        <v>11206.0417872593</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.000695097935646265</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.0184203552407474</v>
+      </c>
+      <c r="I38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" t="n">
+        <v>31837.7685390903</v>
+      </c>
+      <c r="E39" t="n">
+        <v>31876.2595018854</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-15912.8842695452</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.718525068301419</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.0920867446967219</v>
+      </c>
+      <c r="I39" t="s">
+        <v>42</v>
+      </c>
+      <c r="J39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
         <v>33</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-32326.2491294199</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-32287.7581666248</v>
+      </c>
+      <c r="F40" t="n">
+        <v>16169.12456471</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0000344245658589725</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.00423507712086083</v>
+      </c>
+      <c r="I40" t="s">
+        <v>42</v>
+      </c>
+      <c r="J40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-31954.3769009613</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-31915.8859381662</v>
+      </c>
+      <c r="F41" t="n">
+        <v>15983.1884504807</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0000409777544596631</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.0045298303922697</v>
+      </c>
+      <c r="I41" t="s">
+        <v>42</v>
+      </c>
+      <c r="J41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-26765.1554633125</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-26726.6645005174</v>
+      </c>
+      <c r="F42" t="n">
+        <v>13388.5777316562</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.00011769745293201</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.00815489849998383</v>
+      </c>
+      <c r="I42" t="s">
+        <v>42</v>
+      </c>
+      <c r="J42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-17940.7188127727</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-17902.2278499776</v>
+      </c>
+      <c r="F43" t="n">
+        <v>8976.35940638635</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.00100380132812952</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.022140732321569</v>
+      </c>
+      <c r="I43" t="s">
+        <v>42</v>
+      </c>
+      <c r="J43" t="s">
         <v>57</v>
       </c>
-      <c r="C21" t="s">
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-23433.1284200857</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-23394.6374572906</v>
+      </c>
+      <c r="F44" t="n">
+        <v>11722.5642100428</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.000319284269996263</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.0121920750030135</v>
+      </c>
+      <c r="I44" t="s">
+        <v>42</v>
+      </c>
+      <c r="J44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" t="s">
         <v>59</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D45" t="n">
         <v>-20521.2259010673</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E45" t="n">
         <v>-20482.7349382722</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F45" t="n">
         <v>10266.6129505337</v>
       </c>
-      <c r="G21" t="n">
-        <v>0.000598885254141106</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.016399655143897</v>
-      </c>
-      <c r="I21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J21" t="s">
-        <v>56</v>
+      <c r="G45" t="n">
+        <v>0.00059953077463494</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.0164235828002378</v>
+      </c>
+      <c r="I45" t="s">
+        <v>42</v>
+      </c>
+      <c r="J45" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1662,27 +2539,27 @@
         <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2" t="n">
         <v>10</v>
@@ -1694,7 +2571,47 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
         <v>70</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1713,57 +2630,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
         <v>19</v>
       </c>
       <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" t="s">
-        <v>38</v>
-      </c>
       <c r="I1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.000639017976141146</v>
+        <v>0.0559801225270784</v>
       </c>
       <c r="E2" t="n">
-        <v>0.000598885254141106</v>
+        <v>0.000773198625882046</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0168523354070328</v>
+        <v>0.0247725164270442</v>
       </c>
       <c r="G2" t="n">
-        <v>0.016399655143897</v>
+        <v>0.0196400882473723</v>
       </c>
       <c r="H2" t="n">
-        <v>-20631.6910446419</v>
+        <v>-16779.5017064521</v>
       </c>
       <c r="I2" t="n">
         <v>-20521.2259010673</v>
@@ -1771,31 +2688,31 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00116567991518877</v>
+        <v>6.65327515839989</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00106236458509947</v>
+        <v>0.00124899041651523</v>
       </c>
       <c r="F3" t="n">
-        <v>0.023993037284367</v>
+        <v>0.176305690514384</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0215736720954458</v>
+        <v>0.0232603534794983</v>
       </c>
       <c r="H3" t="n">
-        <v>-19592.8957475579</v>
+        <v>-16247.1220832456</v>
       </c>
       <c r="I3" t="n">
-        <v>-19230.97235692</v>
+        <v>-21048.5697816639</v>
       </c>
     </row>
     <row r="4">
@@ -1803,28 +2720,28 @@
         <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0000752347433415846</v>
+        <v>0.0000814676440499745</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0000744443525815452</v>
+        <v>0.0000528715016861755</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00650331199321158</v>
+        <v>0.00641265419972203</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00634071455995381</v>
+        <v>0.00530100746212438</v>
       </c>
       <c r="H4" t="n">
-        <v>-10473.5213832843</v>
+        <v>-30840.5321645848</v>
       </c>
       <c r="I4" t="n">
-        <v>-29359.7661821369</v>
+        <v>-31509.8437710212</v>
       </c>
     </row>
     <row r="5">
@@ -1832,28 +2749,28 @@
         <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0000462300791926403</v>
+        <v>0.0000454283345482919</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0000419519217454676</v>
+        <v>0.000033297307957778</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00527505510661586</v>
+        <v>0.00510518799494098</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00540775850388242</v>
+        <v>0.00451548259175802</v>
       </c>
       <c r="H5" t="n">
-        <v>-18498.2050141623</v>
+        <v>-31388.1151565577</v>
       </c>
       <c r="I5" t="n">
-        <v>-30865.1151412699</v>
+        <v>-32326.2491294199</v>
       </c>
     </row>
   </sheetData>
@@ -1872,24 +2789,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
@@ -1900,10 +2817,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -1917,7 +2834,7 @@
         <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
